--- a/biology/Mycologie/Boletus_olivaceus/Boletus_olivaceus.xlsx
+++ b/biology/Mycologie/Boletus_olivaceus/Boletus_olivaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caloboletus calopus
 Caloboletus calopus, le Bolet à beau pied, anciennement Boletus calopus, est une espèce commune de champignon (Fungi) basidiomycète non comestible du genre Caloboletus dans la famille des Boletaceae. Il est caractérisé par son pied réticulé jaune sur sa partie supérieure, rouge sur sa partie inférieure et sa chair amère bleuissante à la coupe.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloboletus calopus (Pers.) Vizzini[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus calopus Pers.[1].
-Synonymes
-Caloboletus calopus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Caloboletus calopus (Pers.) Vizzini.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus calopus Pers..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caloboletus calopus a pour synonymes :
 Boletus calopus var. ruforubraporus Bertéa &amp; Estadès, 2001
 Boletus calopus var. ruforubriporus Bertéa &amp; Estadès
 Boletus calopus (Pers.) Vizzini
@@ -538,49 +587,6 @@
 Suillus olivaceus (Schaeff.) Kuntze
 Tubiporus calopus (Pers.) Maire
 Tubiporus olivaceus (Schaeff.) Ricken
-Phylogénie
-Le Bolet à beau pied a été décrit pour la première fois en 1774 par Jacob Christian Schäffer sous le nom de Boletus terreus[2]. Christian Hendrik Persoon reprend ce nom en 1801 en synonymie de son Boletus calopus[3]. En 1821, Elias Magnus Fries retient ce dernier nom[4] qui se retrouve ainsi sanctionné. Le nom de l'espèce est parfois écrit Boletus calopus Pers. : Fr.[5] pour rappeler cette sanction, conformément au Code international de nomenclature botanique[6]. En plus de Boletus terreus, trois autres synonymes homotypiques ont été proposés. En 1825, reprenant ses travaux systématiques, Persoon en avait fait une sous espèce Boletus subtomentosus subsp. calopus[7]. Deux autres sont liés au transfert de l'espèce à deux genres. En 1886, Lucien Quélet crée la tribu des Boleti divisée en huit genres, dont le genre Dictyopus. Il est caractérisé par un chapeau large et ferme, un pied fort et réticulé, des pores jaunes. Calopus lui est rattaché[8]. De même René Maire a-t-il proposé en 1937 de créer l'espèce Tubiporus calopus[9]. Boletus olivaceus décrit par Schäffer[2] en 1774 est placé en synonyme homotypique[10] de Boletus pachypus par Fries[4]. Mais ce dernier est devenu synonyme hétérotypique de Boletus calopus[11]. En 1792, Johann Friedrich Gmelin[12] avait décrit un Boletus lapidum mais ce non est illégitime[13]. Boletus frustosus, publié initialement comme une espèce distincte par Walter Henry Snell et Esther Amelia Dick en 1941[14] fut ensuite considéré comme une variété de Boletus calopus par Orson Knapp Miller et Roy Watling en 1968[15]. Alain Estadès et Gilbert Lannoy ont décrit la variété ruforubraporus et la forme ereticulatus en 2001[16].En 1986, dans sa classification infragénérique du genre Boletus, Rolf Singer considère Boletus calopus comme l'espèce type de la section Calopodes, qui regroupe les espèces caractérisées par une chair blanchâtre ou jaunâtre, un goût amer et une réaction bleue dans les parois des tubes. Appartiennent à la même section Boletus radicans, Boletus inedulis, Boletus peckii et Boletus pallidus[17]. En 2013, une étude phylogénétique montre que Boletus calopus et d'autres bolets à pores rouges appartiennent au clade dupainii (du nom de Boletus dupainii), constitué du noyau dur comprenant l'espèce type Boletus edulis et de ses champignons frères au sein des Boletineae[18]. L'espèce fut transférée vers le genre Caloboletus en 2014, genre regroupant des espèces de bolets bleuissant à saveur amère.
-Étymologie et noms vernaculaires
-Le basionyme Boletus vient du latin bōlētus signifiant bolet[19]. L'épithète spécifique calopus est dérivée du grec ancien καλός (kalόs), beau et πούς (poύs), pied[20]. Cette étymologie est à l'origine de ses noms vernaculaires, français Bolet à beau pied et le Bolet à pied joli, mais également dans d'autres langues comme l'allemand Schönfußröhrling[21]. En anglais, il est appelé Bitter beech bolete[22], soit le bolet amer du hêtre, en référence à son goût et à l'arbre auquel il est préférentiellement associé[23].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Boletus_olivaceus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Lorem Ipsum, le Bolet, sont les suivantes :
-Son chapeau mesure 15 cm de diamètre, rarement 20. Il est blanc, beige à olive. D'abord globuleux, il s'ouvre ensuite pour devenir hémisphérique, puis s'étale tout en restant convexe[24]. Le chapeau est lisse ou pubescent, puis développe parfois des craquelures en vieillissant[25]. La cuticule recouvre la marge[26].
-L'hyménophore présente des pores concolores aux tubes, d'abord jaune pale, bleuissant au toucher[21]. Ils deviennent olivacés en vieillissant[27]. Au nombre de un à deux par millimètre, ils sont circulaires en étant jeunes puis anguleux. Les tubes mesurent jusqu'à 2 cm de longueur[28].
-Son stipe est jaune dans la partie supérieure et rouge en dessous, mais il est parfois complètement rougeâtre. La partie supérieure est couverte d'un réseau saillant de couleur blanche[25],[27]. Il mesure 7  à   15 cm de long sur 2  à   5 cm de large. Il peut être plus épais à la base ou avoir une largeur constante[28]. Parfois, chez les champignons matures ou les spécimens récoltés depuis quelques jours, la couleur du stipe rougeâtre disparaît complètement et est remplacée par des tons ocre brun[29]. La chair jaune pâle bleuit lorsqu'elle est blessée, la décoloration s'étalant à partir de la zone endommagée[30]. Son odeur peut être forte et a été comparée à l'encre[31].
-La chair est épaisse, ferme au début, blanchâtre, vineuse à la base du pied, bleuissant modérément à la coupe. Son odeur nulle et sa saveur est amère[32].
-Réactions chimiques
-La chair se colore en brun-jaune avec l'hydroxyde de potassium ou l'ammoniaque et en vert-olive avec le sulfate ferreux[28].
-Caractéristiques microscopiques
-La sporée est de couleur olive ou brun olive. Les spores lisses et elliptiques mesurent 13  à   19 μm sur 5  à   6 μm[28]. Les basides en forme de massue possèdent quatre spores et mesurent 30  à   38 μm par 9  à   12 μm. Les cystides, hyalines, ont une forme de fuseau ou de massue et mesurent 25  à   40 μm sur 10  à   15 μm[29].
 </t>
         </is>
       </c>
@@ -606,14 +612,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet à beau pied a été décrit pour la première fois en 1774 par Jacob Christian Schäffer sous le nom de Boletus terreus. Christian Hendrik Persoon reprend ce nom en 1801 en synonymie de son Boletus calopus. En 1821, Elias Magnus Fries retient ce dernier nom qui se retrouve ainsi sanctionné. Le nom de l'espèce est parfois écrit Boletus calopus Pers. : Fr. pour rappeler cette sanction, conformément au Code international de nomenclature botanique. En plus de Boletus terreus, trois autres synonymes homotypiques ont été proposés. En 1825, reprenant ses travaux systématiques, Persoon en avait fait une sous espèce Boletus subtomentosus subsp. calopus. Deux autres sont liés au transfert de l'espèce à deux genres. En 1886, Lucien Quélet crée la tribu des Boleti divisée en huit genres, dont le genre Dictyopus. Il est caractérisé par un chapeau large et ferme, un pied fort et réticulé, des pores jaunes. Calopus lui est rattaché. De même René Maire a-t-il proposé en 1937 de créer l'espèce Tubiporus calopus. Boletus olivaceus décrit par Schäffer en 1774 est placé en synonyme homotypique de Boletus pachypus par Fries. Mais ce dernier est devenu synonyme hétérotypique de Boletus calopus. En 1792, Johann Friedrich Gmelin avait décrit un Boletus lapidum mais ce non est illégitime. Boletus frustosus, publié initialement comme une espèce distincte par Walter Henry Snell et Esther Amelia Dick en 1941 fut ensuite considéré comme une variété de Boletus calopus par Orson Knapp Miller et Roy Watling en 1968. Alain Estadès et Gilbert Lannoy ont décrit la variété ruforubraporus et la forme ereticulatus en 2001.En 1986, dans sa classification infragénérique du genre Boletus, Rolf Singer considère Boletus calopus comme l'espèce type de la section Calopodes, qui regroupe les espèces caractérisées par une chair blanchâtre ou jaunâtre, un goût amer et une réaction bleue dans les parois des tubes. Appartiennent à la même section Boletus radicans, Boletus inedulis, Boletus peckii et Boletus pallidus. En 2013, une étude phylogénétique montre que Boletus calopus et d'autres bolets à pores rouges appartiennent au clade dupainii (du nom de Boletus dupainii), constitué du noyau dur comprenant l'espèce type Boletus edulis et de ses champignons frères au sein des Boletineae. L'espèce fut transférée vers le genre Caloboletus en 2014, genre regroupant des espèces de bolets bleuissant à saveur amère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie et noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le basionyme Boletus vient du latin bōlētus signifiant bolet. L'épithète spécifique calopus est dérivée du grec ancien καλός (kalόs), beau et πούς (poύs), pied. Cette étymologie est à l'origine de ses noms vernaculaires, français Bolet à beau pied et le Bolet à pied joli, mais également dans d'autres langues comme l'allemand Schönfußröhrling. En anglais, il est appelé Bitter beech bolete, soit le bolet amer du hêtre, en référence à son goût et à l'arbre auquel il est préférentiellement associé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Lorem Ipsum, le Bolet, sont les suivantes :
+Son chapeau mesure 15 cm de diamètre, rarement 20. Il est blanc, beige à olive. D'abord globuleux, il s'ouvre ensuite pour devenir hémisphérique, puis s'étale tout en restant convexe. Le chapeau est lisse ou pubescent, puis développe parfois des craquelures en vieillissant. La cuticule recouvre la marge.
+L'hyménophore présente des pores concolores aux tubes, d'abord jaune pale, bleuissant au toucher. Ils deviennent olivacés en vieillissant. Au nombre de un à deux par millimètre, ils sont circulaires en étant jeunes puis anguleux. Les tubes mesurent jusqu'à 2 cm de longueur.
+Son stipe est jaune dans la partie supérieure et rouge en dessous, mais il est parfois complètement rougeâtre. La partie supérieure est couverte d'un réseau saillant de couleur blanche,. Il mesure 7  à   15 cm de long sur 2  à   5 cm de large. Il peut être plus épais à la base ou avoir une largeur constante. Parfois, chez les champignons matures ou les spécimens récoltés depuis quelques jours, la couleur du stipe rougeâtre disparaît complètement et est remplacée par des tons ocre brun. La chair jaune pâle bleuit lorsqu'elle est blessée, la décoloration s'étalant à partir de la zone endommagée. Son odeur peut être forte et a été comparée à l'encre.
+La chair est épaisse, ferme au début, blanchâtre, vineuse à la base du pied, bleuissant modérément à la coupe. Son odeur nulle et sa saveur est amère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair se colore en brun-jaune avec l'hydroxyde de potassium ou l'ammoniaque et en vert-olive avec le sulfate ferreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sporée est de couleur olive ou brun olive. Les spores lisses et elliptiques mesurent 13  à   19 μm sur 5  à   6 μm. Les basides en forme de massue possèdent quatre spores et mesurent 30  à   38 μm par 9  à   12 μm. Les cystides, hyalines, ont une forme de fuseau ou de massue et mesurent 25  à   40 μm sur 10  à   15 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_olivaceus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Caloboletus calopus var. frustosus est morphologiquement semblable à la variété principale mais son chapeau est aréolé quand elle est mûre. Ses spores sont légèrement plus petites, mesurant 11  à   15 μm sur 4  à   5,5 μm[28].
-Caloboletus calopus f. ereticulatus, est aujourd'hui considérée comme une espèce sous le nom de Caloboletus polygonius, le réseau couvrant le haut du pied est remplacé par des points rouges[33].
-Caloboletus calopus var. ruforubraporus, variété à pores rouge roux, chapeau vite chamois beige, brunâtre. Pores d'un beau roux à rouge roux. Chair blanche, blanchâtre dans le chapeau, verdissante bleuissante. Saveur plus ou moins amère ou acidulée. Sous Castanea avec Pinus, en terrain siliceux[34].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Caloboletus calopus var. frustosus est morphologiquement semblable à la variété principale mais son chapeau est aréolé quand elle est mûre. Ses spores sont légèrement plus petites, mesurant 11  à   15 μm sur 4  à   5,5 μm.
+Caloboletus calopus f. ereticulatus, est aujourd'hui considérée comme une espèce sous le nom de Caloboletus polygonius, le réseau couvrant le haut du pied est remplacé par des points rouges.
+Caloboletus calopus var. ruforubraporus, variété à pores rouge roux, chapeau vite chamois beige, brunâtre. Pores d'un beau roux à rouge roux. Chair blanche, blanchâtre dans le chapeau, verdissante bleuissante. Saveur plus ou moins amère ou acidulée. Sous Castanea avec Pinus, en terrain siliceux.</t>
         </is>
       </c>
     </row>
